--- a/Articles/Student_Articles/Final Articles.xlsx
+++ b/Articles/Student_Articles/Final Articles.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SATISH SHAH\Desktop\Gaurav Shah\Projects\Magazine 2021-22\Flying_High_2021-22\Articles\Student_Articles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1816CD23-30D4-44D0-94BC-2349C2124EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C507953A-AC08-447C-AAD4-A6FD8A908E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0287F623-508A-45ED-8E7F-75785881CD91}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="367">
   <si>
     <t>NAME</t>
   </si>
@@ -950,6 +937,9 @@
   </si>
   <si>
     <t>SHIVANSH SHARMA</t>
+  </si>
+  <si>
+    <t>Gifts</t>
   </si>
   <si>
     <t>(If I have more friends than I would get more gifts, I would have gifts more then I get before, I also get gifts on_x000D_
@@ -1303,17 +1293,7 @@
     <t>Mon animal préféré</t>
   </si>
   <si>
-    <t xml:space="preserve">Mes animaux de compagnie préférés sont les poissons. J’adore voir des poissons _x000D_
-dans le réservoir d’eau ou l’aquarium. Je le trouve très paisible et beau. Ma race de poissons préférée est le poisson rouge. Les poissons rouges se trouvent principalement de couleur orange_x000D_
-</t>
-  </si>
-  <si>
-    <t>Mon animal préféré est le chien._x000D_
-C'est un animal de compagnie._x000D_
-Les chiens sont de différentes couleurs comme le blanc, le noir, le gris et le noir._x000D_
-Certains chiens ont de la fourrure sur le corps._x000D_
-Les chiens mangent de la viande, du poisson, du lait et du pain._x000D_
-Le chien est un animal très fidèle. Il est très fidèle à son maître.</t>
+    <t>Geetika Cheekatmalla</t>
   </si>
   <si>
     <t>K.A.Shree Archidhaa</t>
@@ -1322,9 +1302,6 @@
     <t>8C</t>
   </si>
   <si>
-    <t>Mon animal préféré est le chien. Il est très amiable. Il nous garde et notre maison est protégée si un étranger arrive. Il vive pour longtemps. Il est actif et enjoué.  Nous ne pouvons pas arrêter de jouer avec les chiens. On dit que &lt;&lt;vivre avec un chien rend notre vie plus saine et plus heureuse&gt;&gt;. Lorsque nous gardons notre chien correctement hygiénique et propre, c'est un type d'exercice pour nous. J'aime les chiens.</t>
-  </si>
-  <si>
     <t>Anwesha Singhania</t>
   </si>
   <si>
@@ -1334,32 +1311,15 @@
     <t>Ma Ville</t>
   </si>
   <si>
-    <t>Ma ville s’appelle Kolkata. Elle est la capitale de West Bengal. C'est aussi une ville métropolitaine. Kolkata est une grande et belle ville. La grande fête est Durga Puja et Saraswati Puja. L’alimentation de rue est le bonbon. Puchka et Moori sont deux exemples d’alimentation de rue célèbre et Sandesh est un exemple du bonbon célèbre. À Kolkata on parle Bengali. Le temps est toujours beau. L'aéroport s’appelle Subhas Chandra Bose. Tous les gens adorent la culture, la nourriture, la langue, etc. Les monuments célèbres sont le Victoria Mémorial, le Belur Math, Lake Town Clock Tower, le Fort William, le Palais de marbre, la cathédrale de Paul, etc. Toute ma famille habite à Kolkata. J’aime ma ville, Kolkata.</t>
-  </si>
-  <si>
     <t xml:space="preserve">K.A.Shree Akshadhaa </t>
   </si>
   <si>
-    <t>Le nom de ma ville est Madurai, elle est située en Inde. C'est la 3ème plus grande ville de l'état. Elle est très belle et célèbre pour son temple, sa nourriture, ses collèges, ses bâtiments, etc. On l'appelle la ville des temples car elle regorge de temples. C'est le lieu de naissance de nombreux poètes et acteurs. Madurai se trouve près de la rivière Vaigai Il possède de nombreux sites touristiques historiques tels que "le temple Madurai Meenakshi, Thirumalai Nayakar Mahal, etc." J'aime ma ville. Et je suis fier d'être de Madurai !</t>
-  </si>
-  <si>
     <t>Shrishti Tiwari</t>
   </si>
   <si>
     <t>8E</t>
   </si>
   <si>
-    <t xml:space="preserve">Ma ville est Buxar et je voudrais partager quelques faits sur la ville._x000D_
-Buxar est un centre commercial régional important avec un bon réseau routier, ferroviaire ainsi qu'un système de transport par eau sur le Gange. Avec Dumraon, Buxar est l'un des principaux centres commerciaux et industriels du quartier. Les deux villes sont de grandes fabricantes de savons et de meubles exquis. Les principales exportations de Buxar comprennent le riz, le paddy, le gur, la mangue, les légumes, le poisson et d'autres produits alimentaires. Les principales importations comprennent les produits d'ingénierie et les médicaments._x000D_
-Pour aller de l'avant, je voudrais vous parler des festivals locaux._x000D_
-Chhath puja est dédié au dieu solaire Surya. Le soleil est le dieu visible de tout être, il est la base de la vie de toutes les créatures sur terre. Avec le dieu du soleil, Chhathi Maiya est également vénéré ce jour-là. Selon l'astrologie védique, Chhathi Maiya ou Chhathi Mata protège la progéniture et assure sa longévité. Dans cette fête, les femmes jeûnent toute la journée._x000D_
-En conclusion même si ma ville n'est pas trop spéciale, je l'aime telle qu'elle est._x000D_
-</t>
-  </si>
-  <si>
-    <t>Geetika Cheekatmalla</t>
-  </si>
-  <si>
     <t>Nandini Choudhary</t>
   </si>
   <si>
@@ -1367,25 +1327,6 @@
   </si>
   <si>
     <t>WHAT IS THE MOST IRRITATING SOUND IN THE WORLD?</t>
-  </si>
-  <si>
-    <t>There are many sounds that people find really irritating. It differs from person to_x000D_
-person. Everyone might not find the same sound irritating at the same level._x000D_
-Some might find it more or less irritating as compared to other people.There are many sounds that people find really irritating. It differs from person to person. Everyone might not find the same sound irritating at the same level._x000D_
-Some might find it more or less irritating as compared to other people.So according to the results, published in the Journal of Neuroscience, show the_x000D_
-top 10 most unpleasant sounds are_x000D_
-1.  Knife on a bottle_x000D_
-2.  Fork on a glass_x000D_
-3.  Chalk on a blackboard_x000D_
-4.  Ruler on a bottle_x000D_
-5.  Nails on a blackboard_x000D_
-6.  Female scream_x000D_
-7.  Disc grinder_x000D_
-8.  Squealing brakes on a bicycle_x000D_
-9.  Baby crying_x000D_
-10. Electric drills.   Researchers in the field of psychoacoustics continue to research into just_x000D_
-which sounds we find most unpleasant and the reasons why we find some_x000D_
-sounds very irritating in the first place.</t>
   </si>
   <si>
     <t>Shreyasi Rajawat</t>
@@ -1434,15 +1375,6 @@
   </si>
   <si>
     <t>9D</t>
-  </si>
-  <si>
-    <t>If I became iron man for one day, I would visit Nick Fury and try shaking his_x000D_
-hand. Then I would see all the AI and technology he owns and study then_x000D_
-thoroughly. Then I would wear the hulk buster and take a quick ride with it._x000D_
-Then I would try giving some father-son type talk to spiderman so he may have_x000D_
-confidence to be a better hero. Then I would try making my own suit using his_x000D_
-tech and try to make it as cool as possible. Then I would sit in the top of stark_x000D_
-tower and see the sun set  while eating a doughnut.</t>
   </si>
   <si>
     <t>Pranav Moolapattu</t>
@@ -1612,6 +1544,9 @@
     <t>Ramyashree Rajendra</t>
   </si>
   <si>
+    <t>Rights</t>
+  </si>
+  <si>
     <t>(''Men and women have roles-and their roles are different, but their rights are_x000D_
  equal.'-Harri Holkeri. The strong foundation to a society is the collaboration of_x000D_
  men and women, exercising their rights and fulfilling their responsibilities._x000D_
@@ -1684,6 +1619,9 @@
     <t>XI B</t>
   </si>
   <si>
+    <t>Rock</t>
+  </si>
+  <si>
     <t>(It hasn't been long since I wondered what is it like to become a rock. The one to be stuck in time, never changing, never growing. What would it feel like to be the one who would witness the world change without being considered a significant part of the same? What would it feel like to observe, just observe all day all night and just all the time? Would I become wiser with time, or would I just stay the way I am even if I witness the worst and the best things in the world? Will it be a journey full of being overlooked and not being given importance or a one in which I’d too, be given significance at some point? _x000D_
  Would I be marble, granite or just a pretty pebble? Would I too be sculpted into something that can be appreciated and that is artistic? Or would I be a type that would shatter soon? (But thinking about the answers to all these questions brings me to the point of questioning the importance of the existence of rocks. What if rocks didn't exist? The answer is simple, if there were no rocks, the earth would not exist, and your question becomes moot. Without earth, we would not exist. therefore, being the very support of the living on earth, in itself is a great thing so thinking about anything else would be a waste)</t>
   </si>
@@ -1697,26 +1635,74 @@
     <t>(From the times when rain was a source of our smiles, dancing in the rain used to soothe out the exhaustion of the entire day. The scent of the rain used to rush through the soul and refresh the entire body, to the times when rain was a way to pour out the pain in the form of tears, tears which faded away with the droplets of rain to not show our weaker side in front of the world. We grew up!)(From the times when pillows were the ultimate source of “Pillow Fight”. It was a way of expressing love towards your loved ones to the times when the pillow became our companion on sleepless nights. If tears were colours, the pillows were paintings, they hid the hardest of pains and loudest of cries. We grew up!)( From the times when the family was everything, sitting at the dining table discussing how the day went, family gatherings were a source of entitlement, late-night movies and game sessions with siblings were another sort of pleasure, to the times when taking out time for family required efforts, family vacations became a rare thing and keeping in touch between the chaos of daily life became tough. We grew up! )(- From the times when we could freely say “I am not fine” when we could freely talk about everything and cry out whatever we feel in front of people, to the times when we pretend and put on fake smiles to hide away the agony that we are facing when we need to think twice before sharing our sufferings because of the fear of being laughed at. We grew up!)(From the times when songs were a stress booster, a way of entertainment and a great help during the times of solving maths, when the body used to sway at any random song, to the times when songs became a way of expressing what we feel, to having a fixed playlist and having them become the strongest companions on sleepless nights. We grew up! )(From the times when school was all about meeting our friends and spending a lot of time making memories with them, the urge to tell them everything that happened in a day no matter how good or bad, to the times when it became hard to keep in touch with our friends in between those abrupt work schedules and everyday grocery shopping and meeting them became once in a blue moon thing. We grew up!)(- From the times when going to theatres was a day full of fun and joy, it was all the bickering about sweet and salty popcorns, which drink to have and fighting where to sit, to the times when “Netflix and chill” became the new movie trend with a bowl of Maggie, a drink and the cosy bed. We grew up!)</t>
   </si>
   <si>
-    <t>Gifts</t>
-  </si>
-  <si>
-    <t>Rights</t>
-  </si>
-  <si>
-    <t>Rock</t>
+    <t>If I became iron man for one day, I would visit Nick Fury and try shaking his hand. Then I would see all the AI and technology he owns and study then thoroughly. Then I would wear the hulk buster and take a quick ride with it. Then I would try giving some father-son type talk to spiderman so he may have confidence to be a better hero. Then I would try making my own suit using his tech and try to make it as cool as possible. Then I would sit in the top of stark tower and see the sun set  while eating a doughnut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mes animaux de compagnie préférés sont les poissons. J’adore voir des poissons dans le réservoir d’eau ou l’aquarium. Je le trouve très paisible et beau. Ma race de poissons préférée est le poisson rouge. Les poissons rouges se trouvent principalement de couleur orange)
+</t>
+  </si>
+  <si>
+    <t>(Mon animal préféré est le chien.)
+(C'est un animal de compagnie.)
+(Les chiens sont de différentes couleurs comme le blanc, le noir, le gris et le noir.)
+(Certains chiens ont de la fourrure sur le corps.)
+(Les chiens mangent de la viande, du poisson, du lait et du pain.)
+(Le chien est un animal très fidèle. Il est très fidèle à son maître.)</t>
+  </si>
+  <si>
+    <t>(Mon animal préféré est le chien. Il est très amiable. Il nous garde et notre maison est protégée si un étranger arrive. Il vive pour longtemps. Il est actif et enjoué.  Nous ne pouvons pas arrêter de jouer avec les chiens. On dit que &lt;&lt;vivre avec un chien rend notre vie plus saine et plus heureuse&gt;&gt;. Lorsque nous gardons notre chien correctement hygiénique et propre, c'est un type d'exercice pour nous. J'aime les chiens.)</t>
+  </si>
+  <si>
+    <t>(Ma ville s’appelle Kolkata. Elle est la capitale de West Bengal. C'est aussi une ville métropolitaine. Kolkata est une grande et belle ville. La grande fête est Durga Puja et Saraswati Puja. L’alimentation de rue est le bonbon. Puchka et Moori sont deux exemples d’alimentation de rue célèbre et Sandesh est un exemple du bonbon célèbre. À Kolkata on parle Bengali. Le temps est toujours beau. L'aéroport s’appelle Subhas Chandra Bose. Tous les gens adorent la culture, la nourriture, la langue, etc. Les monuments célèbres sont le Victoria Mémorial, le Belur Math, Lake Town Clock Tower, le Fort William, le Palais de marbre, la cathédrale de Paul, etc. Toute ma famille habite à Kolkata. J’aime ma ville, Kolkata.)</t>
+  </si>
+  <si>
+    <t>(Le nom de ma ville est Madurai, elle est située en Inde. C'est la 3ème plus grande ville de l'état. Elle est très belle et célèbre pour son temple, sa nourriture, ses collèges, ses bâtiments, etc. On l'appelle la ville des temples car elle regorge de temples. C'est le lieu de naissance de nombreux poètes et acteurs. Madurai se trouve près de la rivière Vaigai Il possède de nombreux sites touristiques historiques tels que "le temple Madurai Meenakshi, Thirumalai Nayakar Mahal, etc." J'aime ma ville. Et je suis fier d'être de Madurai !)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Ma ville est Buxar et je voudrais partager quelques faits sur la ville.
+Buxar est un centre commercial régional important avec un bon réseau routier, ferroviaire ainsi qu'un système de transport par eau sur le Gange. Avec Dumraon, Buxar est l'un des principaux centres commerciaux et industriels du quartier. Les deux villes sont de grandes fabricantes de savons et de meubles exquis. Les principales exportations de Buxar comprennent le riz, le paddy, le gur, la mangue, les légumes, le poisson et d'autres produits alimentaires. Les principales importations comprennent les produits d'ingénierie et les médicaments.
+Pour aller de l'avant, je voudrais vous parler des festivals locaux.
+Chhath puja est dédié au dieu solaire Surya. Le soleil est le dieu visible de tout être, il est la base de la vie de toutes les créatures sur terre. Avec le dieu du soleil, Chhathi Maiya est également vénéré ce jour-là. Selon l'astrologie védique, Chhathi Maiya ou Chhathi Mata protège la progéniture et assure sa longévité. Dans cette fête, les femmes jeûnent toute la journée.
+En conclusion même si ma ville n'est pas trop spéciale, je l'aime telle qu'elle est.)
+</t>
+  </si>
+  <si>
+    <t>(There are many sounds that people find really irritating. It differs from person to
+person. Everyone might not find the same sound irritating at the same level.
+Some might find it more or less irritating as compared to other people.There are many sounds that people find really irritating. It differs from person to person. Everyone might not find the same sound irritating at the same level.
+Some might find it more or less irritating as compared to other people.So according to the results, published in the Journal of Neuroscience, show the
+top 10 most unpleasant sounds are)
+(1.  Knife on a bottle)
+(2.  Fork on a glass)
+(3.  Chalk on a blackboard)
+(4.  Ruler on a bottle)
+(5.  Nails on a blackboard)
+(6.  Female scream)
+(7.  Disc grinder)
+(8.  Squealing brakes on a bicycle)
+(9.  Baby crying)
+(10. Electric drills.   Researchers in the field of psychoacoustics continue to research into just
+which sounds we find most unpleasant and the reasons why we find some
+sounds very irritating in the first place.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1727,7 +1713,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -1739,17 +1732,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1796,20 +1808,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1837,31 +1849,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1889,23 +1884,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1917,2095 +1895,2130 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CE39EE-7DE2-4A91-9CE7-FBAC5028A256}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="D121" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D76" t="s">
+      <c r="C76" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D77" t="s">
+      <c r="C77" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="78" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="79" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D79" t="s">
+      <c r="C79" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="82" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="83" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="85" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="87" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" s="7">
+        <v>5</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>213</v>
-      </c>
-      <c r="B88" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" t="s">
-        <v>214</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>216</v>
-      </c>
-      <c r="B89" t="s">
-        <v>205</v>
-      </c>
-      <c r="C89" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>218</v>
-      </c>
-      <c r="B90" t="s">
-        <v>219</v>
-      </c>
-      <c r="C90" t="s">
-        <v>220</v>
-      </c>
-      <c r="D90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>222</v>
-      </c>
-      <c r="B91" t="s">
-        <v>219</v>
-      </c>
-      <c r="C91" t="s">
-        <v>220</v>
-      </c>
-      <c r="D91" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>224</v>
-      </c>
-      <c r="B92" t="s">
-        <v>225</v>
-      </c>
-      <c r="C92" t="s">
-        <v>226</v>
-      </c>
-      <c r="D92" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>228</v>
-      </c>
-      <c r="B93" t="s">
-        <v>225</v>
-      </c>
-      <c r="C93" t="s">
-        <v>226</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>230</v>
-      </c>
-      <c r="B94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C94" t="s">
-        <v>231</v>
-      </c>
-      <c r="D94" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>233</v>
-      </c>
-      <c r="B95" t="s">
-        <v>225</v>
-      </c>
-      <c r="C95" t="s">
-        <v>226</v>
-      </c>
-      <c r="D95" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>235</v>
-      </c>
-      <c r="B96" t="s">
-        <v>236</v>
-      </c>
-      <c r="C96" t="s">
-        <v>220</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>238</v>
-      </c>
-      <c r="B97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C97" t="s">
-        <v>220</v>
-      </c>
-      <c r="D97" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>241</v>
-      </c>
-      <c r="B98" t="s">
-        <v>242</v>
-      </c>
-      <c r="C98" t="s">
-        <v>243</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>245</v>
-      </c>
-      <c r="B99" t="s">
-        <v>242</v>
-      </c>
-      <c r="C99" t="s">
-        <v>243</v>
-      </c>
-      <c r="D99" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>247</v>
-      </c>
-      <c r="B100">
-        <v>5</v>
-      </c>
-      <c r="C100" t="s">
-        <v>243</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>249</v>
-      </c>
-      <c r="B101" t="s">
-        <v>236</v>
-      </c>
-      <c r="C101" t="s">
-        <v>243</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>251</v>
-      </c>
-      <c r="B102" t="s">
-        <v>242</v>
-      </c>
-      <c r="C102" t="s">
-        <v>243</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>253</v>
-      </c>
-      <c r="B103" t="s">
-        <v>254</v>
-      </c>
-      <c r="C103" t="s">
-        <v>255</v>
-      </c>
-      <c r="D103" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>257</v>
-      </c>
-      <c r="B104" t="s">
-        <v>242</v>
-      </c>
-      <c r="C104" t="s">
-        <v>255</v>
-      </c>
-      <c r="D104" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>259</v>
-      </c>
-      <c r="B105" t="s">
-        <v>225</v>
-      </c>
-      <c r="C105" t="s">
-        <v>255</v>
-      </c>
-      <c r="D105" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>261</v>
-      </c>
-      <c r="B106" t="s">
-        <v>239</v>
-      </c>
-      <c r="C106" t="s">
-        <v>255</v>
-      </c>
-      <c r="D106" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>263</v>
-      </c>
-      <c r="B107" t="s">
-        <v>236</v>
-      </c>
-      <c r="C107" t="s">
-        <v>255</v>
-      </c>
-      <c r="D107" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>265</v>
-      </c>
-      <c r="B108" t="s">
-        <v>239</v>
-      </c>
-      <c r="C108" t="s">
-        <v>255</v>
-      </c>
-      <c r="D108" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>267</v>
-      </c>
-      <c r="B109" t="s">
-        <v>242</v>
-      </c>
-      <c r="C109" t="s">
-        <v>255</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>269</v>
-      </c>
-      <c r="B110" t="s">
-        <v>242</v>
-      </c>
-      <c r="C110" t="s">
-        <v>255</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>271</v>
-      </c>
-      <c r="B111" t="s">
-        <v>272</v>
-      </c>
-      <c r="C111" t="s">
-        <v>273</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>275</v>
-      </c>
-      <c r="B112" t="s">
-        <v>276</v>
-      </c>
-      <c r="C112" t="s">
-        <v>277</v>
-      </c>
-      <c r="D112" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>279</v>
-      </c>
-      <c r="B113" t="s">
-        <v>280</v>
-      </c>
-      <c r="C113" t="s">
-        <v>281</v>
-      </c>
-      <c r="D113" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>283</v>
-      </c>
-      <c r="B114" t="s">
-        <v>284</v>
-      </c>
-      <c r="C114" t="s">
-        <v>281</v>
-      </c>
-      <c r="D114" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>286</v>
-      </c>
-      <c r="B115" t="s">
-        <v>287</v>
-      </c>
-      <c r="C115" t="s">
-        <v>288</v>
-      </c>
-      <c r="D115" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>290</v>
-      </c>
-      <c r="B116" t="s">
-        <v>291</v>
-      </c>
-      <c r="C116" t="s">
-        <v>292</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    </row>
+    <row r="121" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B117" t="s">
-        <v>291</v>
-      </c>
-      <c r="C117" t="s">
-        <v>292</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>295</v>
-      </c>
-      <c r="B118" t="s">
-        <v>296</v>
-      </c>
-      <c r="C118" t="s">
-        <v>292</v>
-      </c>
-      <c r="D118" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>298</v>
-      </c>
-      <c r="B119" t="s">
-        <v>299</v>
-      </c>
-      <c r="C119" t="s">
-        <v>300</v>
-      </c>
-      <c r="D119" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>302</v>
-      </c>
-      <c r="B120" t="s">
-        <v>296</v>
-      </c>
-      <c r="C120" t="s">
-        <v>300</v>
-      </c>
-      <c r="D120" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>304</v>
-      </c>
-      <c r="B121" t="s">
-        <v>305</v>
-      </c>
-      <c r="C121" t="s">
-        <v>300</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    </row>
+    <row r="124" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B124" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C124" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D124" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="125" spans="1:4" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B123" t="s">
-        <v>309</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B125" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D125" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>314</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="C126" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D126" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D124" s="1" t="s">
+    </row>
+    <row r="127" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B127" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B125" t="s">
+    </row>
+    <row r="128" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C125" t="s">
-        <v>316</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="C128" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B126" t="s">
-        <v>319</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="D128" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D126" s="1" t="s">
+    </row>
+    <row r="129" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B129" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B127" t="s">
-        <v>319</v>
-      </c>
-      <c r="C127" t="s">
-        <v>322</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="D129" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="130" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B130" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C130" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D130" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="131" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B131" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B136" s="7">
+        <v>10</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C129" t="s">
-        <v>331</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>333</v>
-      </c>
-      <c r="B130" t="s">
-        <v>334</v>
-      </c>
-      <c r="C130" t="s">
-        <v>335</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>337</v>
-      </c>
-      <c r="B131" t="s">
-        <v>338</v>
-      </c>
-      <c r="C131" t="s">
-        <v>339</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>341</v>
-      </c>
-      <c r="B132" t="s">
-        <v>338</v>
-      </c>
-      <c r="C132" t="s">
-        <v>342</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>344</v>
-      </c>
-      <c r="B133" t="s">
-        <v>338</v>
-      </c>
-      <c r="C133" t="s">
-        <v>345</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>347</v>
-      </c>
-      <c r="B134" t="s">
-        <v>338</v>
-      </c>
-      <c r="C134" t="s">
-        <v>365</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>349</v>
-      </c>
-      <c r="B135" t="s">
-        <v>338</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="C137" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D137" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="138" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B136">
-        <v>10</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B138" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D136" t="s">
+      <c r="C138" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="D138" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B137" t="s">
-        <v>334</v>
-      </c>
-      <c r="C137" t="s">
+    </row>
+    <row r="139" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="B139" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="D139" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B138" t="s">
-        <v>359</v>
-      </c>
-      <c r="C138" t="s">
-        <v>366</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>361</v>
-      </c>
-      <c r="B139" t="s">
-        <v>359</v>
-      </c>
-      <c r="C139" t="s">
-        <v>362</v>
-      </c>
-      <c r="D139" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
